--- a/Unity/开发日志/星夜女巫角色设定表.xlsx
+++ b/Unity/开发日志/星夜女巫角色设定表.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u9king\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\LeNote\Unity\开发日志\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0811D1E-206B-4FCE-94C5-BA92D034D15D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{217CCF61-27F1-4092-B7E1-46B36482B3FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
   <si>
     <t>人物</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,10 +39,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>重要事件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>推动情感</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -99,10 +95,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>被石化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>爱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -115,10 +107,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>纺织</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -164,6 +152,58 @@
   </si>
   <si>
     <t>执着</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丈夫-珍妮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妻子-哈特</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怕老鼠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剧情走向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前半:帮助玩家  后半:被石化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巫师服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服饰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石化小鸟掉落砸伤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>驯服动物</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -492,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -503,143 +543,175 @@
     <col min="1" max="1" width="20.58203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.58203125" style="1" customWidth="1"/>
     <col min="3" max="4" width="8.6640625" style="1" customWidth="1"/>
-    <col min="8" max="9" width="8.6640625" style="1"/>
-    <col min="10" max="12" width="12.58203125" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.6640625" style="1"/>
+    <col min="10" max="10" width="15.58203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" style="1"/>
+    <col min="12" max="12" width="32" style="1" customWidth="1"/>
+    <col min="13" max="14" width="12.58203125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="17" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F2" s="1">
         <v>16</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="B3" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F3" s="1">
         <v>28</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>14</v>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F4" s="1">
         <v>26</v>
       </c>
       <c r="G4" s="1"/>
-      <c r="I4" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
       <c r="J4" s="1" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1">
@@ -647,88 +719,129 @@
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>28</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="G7" s="1"/>
-      <c r="H7"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="G8" s="1"/>
-      <c r="H8"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="G9" s="1"/>
-      <c r="H9"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="G10" s="1"/>
-      <c r="H10"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="G11" s="1"/>
-      <c r="H11"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="G12" s="1"/>
-      <c r="H12"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="G13" s="1"/>
-      <c r="H13"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="G14" s="1"/>
-      <c r="H14"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="G15" s="1"/>
-      <c r="H15"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="G16" s="1"/>
-      <c r="H16"/>
-    </row>
-    <row r="17" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G17" s="1"/>
-      <c r="H17"/>
-    </row>
-    <row r="18" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G18" s="1"/>
-      <c r="H18"/>
-    </row>
-    <row r="19" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G19" s="1"/>
-      <c r="H19"/>
-    </row>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G20" s="1"/>
-      <c r="H20"/>
-    </row>
-    <row r="21" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G21" s="1"/>
-      <c r="H21"/>
-    </row>
-    <row r="22" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G22" s="1"/>
-      <c r="H22"/>
-    </row>
-    <row r="23" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G23" s="1"/>
-      <c r="H23"/>
+        <v>13</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="I7" s="1"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="O7"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="I8" s="1"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="O8"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="I9" s="1"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="O9"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="I10" s="1"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="O10"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="I11" s="1"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="O11"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="I12" s="1"/>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="O12"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="I13" s="1"/>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="O13"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="I14" s="1"/>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="O14"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="I15" s="1"/>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="O15"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="I16" s="1"/>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="O16"/>
+    </row>
+    <row r="17" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I17" s="1"/>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="O17"/>
+    </row>
+    <row r="18" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I18" s="1"/>
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="O18"/>
+    </row>
+    <row r="19" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I19" s="1"/>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="O19"/>
+    </row>
+    <row r="20" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I20" s="1"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="O20"/>
+    </row>
+    <row r="21" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I21" s="1"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="O21"/>
+    </row>
+    <row r="22" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I22" s="1"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="O22"/>
+    </row>
+    <row r="23" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I23" s="1"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="O23"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
